--- a/396-rc---maj-des-capability-statements---projet-personnalisé/ig/ValueSet-tddui-goal-objectif-note-vs.xlsx
+++ b/396-rc---maj-des-capability-statements---projet-personnalisé/ig/ValueSet-tddui-goal-objectif-note-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T10:39:00+00:00</t>
+    <t>2025-12-18T14:20:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
